--- a/src/data/Products.xlsx
+++ b/src/data/Products.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D8C8546-1AD8-40E4-AA98-C1B6AA22B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="19">
   <si>
     <t>Grade</t>
   </si>
@@ -31,46 +48,52 @@
     <t>A</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>12p</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>12pm</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>13mini</t>
+  </si>
+  <si>
+    <t>13p</t>
+  </si>
+  <si>
+    <t>13pm</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>12p</t>
-  </si>
-  <si>
-    <t>12pm</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>13mini</t>
-  </si>
-  <si>
-    <t>13p</t>
-  </si>
-  <si>
-    <t>13pm</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>256</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -134,13 +157,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +209,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -212,6 +243,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -246,9 +278,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,10 +454,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -447,10 +482,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -458,13 +493,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>230</v>
@@ -475,10 +510,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>260</v>
@@ -489,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>280</v>
@@ -503,10 +538,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>340</v>
@@ -517,10 +552,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>380</v>
@@ -531,10 +566,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>270</v>
@@ -545,10 +580,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>240</v>
@@ -559,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>350</v>
@@ -573,10 +608,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>380</v>
@@ -587,10 +622,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>420</v>
@@ -601,10 +636,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>470</v>
@@ -612,13 +647,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>180</v>
@@ -626,13 +661,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>210</v>
@@ -640,13 +675,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>240</v>
@@ -654,13 +689,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>260</v>
@@ -668,13 +703,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>310</v>
@@ -682,13 +717,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>350</v>
@@ -696,13 +731,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>250</v>
@@ -710,13 +745,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>220</v>
@@ -724,13 +759,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>320</v>
@@ -738,13 +773,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>350</v>
@@ -752,13 +787,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>390</v>
@@ -766,13 +801,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>440</v>
@@ -780,13 +815,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
       </c>
       <c r="D26">
         <v>150</v>
@@ -794,13 +829,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D27">
         <v>180</v>
@@ -808,13 +843,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D28">
         <v>200</v>
@@ -822,13 +857,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>220</v>
@@ -836,13 +871,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>270</v>
@@ -850,13 +885,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>300</v>
@@ -864,13 +899,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D32">
         <v>220</v>
@@ -878,13 +913,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D33">
         <v>200</v>
@@ -892,13 +927,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>280</v>
@@ -906,13 +941,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>320</v>
@@ -920,13 +955,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>350</v>
@@ -934,13 +969,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>400</v>
